--- a/Optimization Problem.xlsx
+++ b/Optimization Problem.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t xml:space="preserve">Route </t>
   </si>
@@ -139,6 +139,9 @@
     <t>Q</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
     <t>Chris is able to get any amount of containers no limit</t>
   </si>
   <si>
@@ -152,6 +155,45 @@
   </si>
   <si>
     <t>NY should be 4:3 in Seattle</t>
+  </si>
+  <si>
+    <t>Wihtout JMG</t>
+  </si>
+  <si>
+    <t>Route</t>
+  </si>
+  <si>
+    <t>Containers</t>
+  </si>
+  <si>
+    <t>Avg Price</t>
+  </si>
+  <si>
+    <t>With JMG</t>
+  </si>
+  <si>
+    <t>Seoul&gt;Shanghai&gt;San Francisco&gt;New York</t>
+  </si>
+  <si>
+    <t>Seoul&gt;Shanghai&gt;Seattle&gt;New York</t>
+  </si>
+  <si>
+    <t>Beijing&gt;LA&gt;Seattle&gt;New York</t>
+  </si>
+  <si>
+    <t>Seoul&gt;Taipei&gt;San Francisco&gt;New York</t>
+  </si>
+  <si>
+    <t>Beijing&gt;LA&gt;KC&gt;New York</t>
+  </si>
+  <si>
+    <t>Seoul&gt;Osaka&gt;Seattle&gt;New York</t>
+  </si>
+  <si>
+    <t>Seoul&gt;Osaka&gt;Seattle&gt;Baltimore&gt;New York</t>
+  </si>
+  <si>
+    <t>Price Difference in Dollars</t>
   </si>
 </sst>
 </file>
@@ -161,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -172,8 +214,16 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Inconsolata"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +236,12 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -193,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -214,6 +270,15 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -636,8 +701,8 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>20</v>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>31</v>
@@ -752,23 +817,34 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="1"/>
-      <c r="D19" s="3" t="s">
+      <c r="A19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="B19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2000.0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="1"/>
+      <c r="D20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="7"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21">
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="6" t="s">
         <v>44</v>
       </c>
+      <c r="C21" s="7"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22">
@@ -784,6 +860,9 @@
       <c r="E23" s="5"/>
     </row>
     <row r="24">
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E24" s="5"/>
     </row>
     <row r="25">
@@ -793,55 +872,336 @@
       <c r="E26" s="5"/>
     </row>
     <row r="27">
-      <c r="E27" s="5"/>
+      <c r="A27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="28">
+      <c r="B28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2600.0</v>
+      </c>
       <c r="E28" s="5"/>
+      <c r="F28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2600.0</v>
+      </c>
     </row>
     <row r="29">
+      <c r="B29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3700.0</v>
+      </c>
       <c r="E29" s="5"/>
+      <c r="F29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3400.0</v>
+      </c>
     </row>
     <row r="30">
+      <c r="B30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3900.0</v>
+      </c>
       <c r="E30" s="5"/>
+      <c r="F30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>3500.0</v>
+      </c>
     </row>
     <row r="31">
+      <c r="B31" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>4300.0</v>
+      </c>
       <c r="E31" s="5"/>
+      <c r="F31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3700.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="E32" s="5"/>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>3900.0</v>
+      </c>
     </row>
     <row r="33">
       <c r="E33" s="5"/>
+      <c r="F33" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>4300.0</v>
+      </c>
     </row>
     <row r="34">
       <c r="E34" s="5"/>
+      <c r="F34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>5000.0</v>
+      </c>
     </row>
     <row r="35">
       <c r="E35" s="5"/>
     </row>
     <row r="36">
-      <c r="E36" s="5"/>
+      <c r="A36" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="37">
-      <c r="E37" s="5"/>
+      <c r="B37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>2600.0</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="10">
+        <v>40.0</v>
+      </c>
+      <c r="H37" s="1">
+        <v>2600.0</v>
+      </c>
+      <c r="I37" s="11">
+        <f t="shared" ref="I37:I39" si="1">C37*D37-G37*H37</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="E38" s="5"/>
+      <c r="B38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="1">
+        <f>C29+C28</f>
+        <v>70</v>
+      </c>
+      <c r="D38" s="1">
+        <f>AVERAGE(D28:D29)</f>
+        <v>3150</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" s="10">
+        <f>SUM(G28:G29)</f>
+        <v>70</v>
+      </c>
+      <c r="H38" s="1">
+        <f>AVERAGE(H28:H29)</f>
+        <v>3000</v>
+      </c>
+      <c r="I38" s="11">
+        <f t="shared" si="1"/>
+        <v>10500</v>
+      </c>
     </row>
     <row r="39">
-      <c r="E39" s="5"/>
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1">
+        <f>C30+C29+C28</f>
+        <v>100</v>
+      </c>
+      <c r="D39" s="1">
+        <f>AVERAGE(D28:D30)</f>
+        <v>3400</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" s="10">
+        <f>SUM(G28:G30)</f>
+        <v>100</v>
+      </c>
+      <c r="H39" s="12">
+        <f>AVERAGE(H28:H30)</f>
+        <v>3166.666667</v>
+      </c>
+      <c r="I39" s="11">
+        <f t="shared" si="1"/>
+        <v>23333.33333</v>
+      </c>
     </row>
     <row r="40">
-      <c r="E40" s="5"/>
+      <c r="B40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="1">
+        <f>SUM(C28:C31)</f>
+        <v>150</v>
+      </c>
+      <c r="D40" s="1">
+        <f>AVERAGE(D28:D31)</f>
+        <v>3625</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G40" s="12">
+        <f>SUM(G28:G31)</f>
+        <v>130</v>
+      </c>
+      <c r="H40" s="12">
+        <f>AVERAGE(H28:H31)</f>
+        <v>3300</v>
+      </c>
+      <c r="I40" s="11">
+        <f>C40*D40-C40*H41</f>
+        <v>30750</v>
+      </c>
     </row>
     <row r="41">
-      <c r="E41" s="5"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" s="12">
+        <f>SUM(G28:G32)</f>
+        <v>160</v>
+      </c>
+      <c r="H41" s="12">
+        <f>AVERAGE(H28:H32)</f>
+        <v>3420</v>
+      </c>
     </row>
     <row r="42">
-      <c r="E42" s="5"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" s="12">
+        <f>SUM(G28:G33)</f>
+        <v>180</v>
+      </c>
+      <c r="H42" s="1">
+        <f>AVERAGE(H28:H33)</f>
+        <v>3566.666667</v>
+      </c>
     </row>
     <row r="43">
-      <c r="E43" s="5"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="12">
+        <f>SUM(G28:G34)</f>
+        <v>210</v>
+      </c>
+      <c r="H43" s="1">
+        <f>AVERAGE(H28:H34)</f>
+        <v>3771.428571</v>
+      </c>
     </row>
     <row r="44">
       <c r="E44" s="5"/>
@@ -3719,6 +4079,9 @@
     </row>
     <row r="1002">
       <c r="E1002" s="5"/>
+    </row>
+    <row r="1003">
+      <c r="E1003" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
